--- a/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_TESTDATA_V1.xlsx
+++ b/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_TESTDATA_V1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26006"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1EA7B37-F849-4CB1-A80A-0037F648FEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{191C57CA-6559-4392-9CA6-F0E68BA4A433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CancellationOfAdvanceEMPData" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="100">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -117,45 +117,48 @@
     <t>AZENTMAIN</t>
   </si>
   <si>
-    <t>Apr</t>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_008_TC_02</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_008_TC_02_D1</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Approved from Reviewer</t>
+  </si>
+  <si>
+    <t>Approved from Checker</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_008_TC_03</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_008_TC_03_D1</t>
+  </si>
+  <si>
+    <t>Apr 2023</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
   <si>
     <t>April</t>
   </si>
   <si>
-    <t>KUBS_AR_AP_UAT_003_008_TC_02</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_008_TC_02_D1</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>Approved from Reviewer</t>
-  </si>
-  <si>
-    <t>Approved from Checker</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_008_TC_03</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_008_TC_03_D1</t>
-  </si>
-  <si>
-    <t>Apr 2023</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>Business Partner wise</t>
   </si>
   <si>
@@ -168,6 +171,9 @@
     <t>Branch Code</t>
   </si>
   <si>
+    <t>ReportType</t>
+  </si>
+  <si>
     <t>Month</t>
   </si>
   <si>
@@ -180,66 +186,66 @@
     <t>ToYear</t>
   </si>
   <si>
+    <t>FullToMonth</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_01</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_01_D1</t>
+  </si>
+  <si>
+    <t>CANCELLED</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_02</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_02_D1</t>
+  </si>
+  <si>
+    <t>AZENTMAIN-Azentio Main Branch</t>
+  </si>
+  <si>
+    <t>Own Branch</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_03</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_03_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_04</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_04_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_05</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_05_D1</t>
+  </si>
+  <si>
+    <t>GRN Status</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>FromMonth</t>
+  </si>
+  <si>
+    <t>FromYear</t>
+  </si>
+  <si>
+    <t>FromFullMonth</t>
+  </si>
+  <si>
     <t>ToFullMonth</t>
   </si>
   <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_01</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_01_D1</t>
-  </si>
-  <si>
-    <t>CANCELLED</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_02</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_02_D1</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_03</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_03_D1</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_04</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_04_D1</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_05</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_05_D1</t>
-  </si>
-  <si>
-    <t>GRN Status</t>
-  </si>
-  <si>
-    <t>FromDate</t>
-  </si>
-  <si>
-    <t>FromMonth</t>
-  </si>
-  <si>
-    <t>FromYear</t>
-  </si>
-  <si>
-    <t>FromFullMonth</t>
-  </si>
-  <si>
-    <t>ReportType</t>
-  </si>
-  <si>
     <t>PaymentOption</t>
   </si>
   <si>
@@ -265,9 +271,6 @@
   </si>
   <si>
     <t>KUBS_AR_AP_UAT_003_006_TC_01_D1</t>
-  </si>
-  <si>
-    <t>AZENTMAIN-Azentio Main Branch</t>
   </si>
   <si>
     <t>Jan</t>
@@ -785,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CF0092-05B3-41BD-8138-FDAA12000422}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -906,25 +909,25 @@
         <v>27</v>
       </c>
       <c r="G2" s="8">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="8">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K2" s="8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="M2" s="8">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>29</v>
@@ -1019,13 +1022,13 @@
         <v>40</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -1038,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511CA6F8-E32A-4160-8BE1-E36227470717}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1051,20 +1054,20 @@
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="6" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,87 +1081,91 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7"/>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="L2" s="8">
+        <v>14</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="8">
-        <v>2024</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="N2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="8">
-        <v>29</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="8">
-        <v>2025</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -1168,87 +1175,106 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8">
+        <v>54</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2022</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="8">
-        <v>2024</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="7"/>
+      <c r="O3" s="8"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="8">
+        <v>14</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2022</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="7"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
-      <c r="S4" s="7"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="7"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1262,11 +1288,12 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="7"/>
+      <c r="O6" s="8"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1315,43 +1342,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>20</v>
@@ -1360,36 +1387,36 @@
         <v>21</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1397,31 +1424,31 @@
         <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G2" s="8">
         <v>30</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" s="8">
         <v>2023</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2" s="8">
         <v>1</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" s="8">
         <v>2024</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -1439,10 +1466,10 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1450,7 +1477,7 @@
         <v>32</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -1460,10 +1487,10 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -1480,10 +1507,10 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1504,13 +1531,13 @@
         <v>30</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R4" s="8">
         <v>2023</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -1523,10 +1550,10 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1545,19 +1572,19 @@
         <v>30</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R5" s="8">
         <v>2023</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
@@ -1568,10 +1595,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1592,25 +1619,25 @@
         <v>30</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R6" s="8">
         <v>2023</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X6" s="7">
         <v>10</v>
@@ -1619,10 +1646,10 @@
         <v>33</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1634,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBF98A0-2B06-4A49-83D6-BD198AF90B9E}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1683,7 +1710,7 @@
         <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1709,18 +1736,18 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>

--- a/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_TESTDATA_V1.xlsx
+++ b/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_TESTDATA_V1.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26105"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{191C57CA-6559-4392-9CA6-F0E68BA4A433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B8579E-9B2B-4A0B-B272-14D6F7B25EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CancellationOfAdvanceEMPData" sheetId="4" r:id="rId1"/>
-    <sheet name="CancelledCreditNoteTestData" sheetId="3" r:id="rId2"/>
-    <sheet name="CancelledDebitNoteTestData" sheetId="1" r:id="rId3"/>
-    <sheet name="CancellationOfAdvanceAgainstPO" sheetId="2" r:id="rId4"/>
+    <sheet name="ApprovingBillsByEmployeeData" sheetId="5" r:id="rId1"/>
+    <sheet name="CancellationOfAdvanceEMPData" sheetId="4" r:id="rId2"/>
+    <sheet name="CancelledCreditNoteTestData" sheetId="3" r:id="rId3"/>
+    <sheet name="CancelledDebitNoteTestData" sheetId="1" r:id="rId4"/>
+    <sheet name="ClearingReceiptViaChequeData" sheetId="8" r:id="rId5"/>
+    <sheet name="RecordingReceiptTestData" sheetId="7" r:id="rId6"/>
+    <sheet name="AutoPayoutTestData" sheetId="6" r:id="rId7"/>
+    <sheet name="CancellationOfAdvanceAgainstPO" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="213">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -45,12 +49,135 @@
     <t>ReviewerID</t>
   </si>
   <si>
+    <t>RecivableName</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>ModeofPayment</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>CostCenter</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>GRNStatus</t>
+  </si>
+  <si>
+    <t>PaymentOption</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>FullMonth</t>
+  </si>
+  <si>
+    <t>BranchCode</t>
+  </si>
+  <si>
+    <t>ReportType</t>
+  </si>
+  <si>
+    <t>PanNo</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_007_TC_01</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_007_TC_01_D1</t>
+  </si>
+  <si>
+    <t>Advance To Employee</t>
+  </si>
+  <si>
+    <t>TRM agency</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>FINANCE</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Business Partner wise</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_007_TC_02</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_007_TC_02_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_007_TC_03</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_007_TC_03_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_007_TC_05</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_007_TC_05_D1</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>AZENTMAIN-Azentio Main Branch</t>
+  </si>
+  <si>
+    <t>Own branch</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_007_TC_06</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_007_TC_06_D1</t>
+  </si>
+  <si>
+    <t>PAN-254-2022-04-22</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_007_TC_07</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_007_TC_07_D1</t>
+  </si>
+  <si>
+    <t>PAN-253-2022-04-22</t>
+  </si>
+  <si>
     <t>AdjustementItemType</t>
   </si>
   <si>
-    <t>BranchCode</t>
-  </si>
-  <si>
     <t>GL Date</t>
   </si>
   <si>
@@ -78,9 +205,6 @@
     <t>ADVStatus</t>
   </si>
   <si>
-    <t>Remark</t>
-  </si>
-  <si>
     <t>Remark by Reviewer</t>
   </si>
   <si>
@@ -90,15 +214,6 @@
     <t>MonthYear</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>FullMonth</t>
-  </si>
-  <si>
     <t>PaymentOptionForCancelledAdvance</t>
   </si>
   <si>
@@ -117,24 +232,12 @@
     <t>AZENTMAIN</t>
   </si>
   <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
     <t>KUBS_AR_AP_UAT_003_008_TC_02</t>
   </si>
   <si>
     <t>KUBS_AR_AP_UAT_003_008_TC_02_D1</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>Approved from Reviewer</t>
   </si>
   <si>
@@ -159,24 +262,12 @@
     <t>April</t>
   </si>
   <si>
-    <t>Business Partner wise</t>
-  </si>
-  <si>
-    <t>Advance To Employee</t>
-  </si>
-  <si>
     <t>Contract Status</t>
   </si>
   <si>
     <t>Branch Code</t>
   </si>
   <si>
-    <t>ReportType</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>ToDate</t>
   </si>
   <si>
@@ -204,9 +295,6 @@
     <t>KUBS_AR_AP_UAT_003_007_TC_02_D1</t>
   </si>
   <si>
-    <t>AZENTMAIN-Azentio Main Branch</t>
-  </si>
-  <si>
     <t>Own Branch</t>
   </si>
   <si>
@@ -246,9 +334,6 @@
     <t>ToFullMonth</t>
   </si>
   <si>
-    <t>PaymentOption</t>
-  </si>
-  <si>
     <t>BusinessPartner</t>
   </si>
   <si>
@@ -261,9 +346,6 @@
     <t>DebitNoteAmount</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>DebitType</t>
   </si>
   <si>
@@ -288,9 +370,6 @@
     <t>Azentio Main Branch</t>
   </si>
   <si>
-    <t>Own branch</t>
-  </si>
-  <si>
     <t>KUBS_AR_AP_UAT_003_006_TC_03</t>
   </si>
   <si>
@@ -322,6 +401,270 @@
   </si>
   <si>
     <t>AR Debit Note</t>
+  </si>
+  <si>
+    <t>ReceiptReferenceNumber</t>
+  </si>
+  <si>
+    <t>ReceiptAmount</t>
+  </si>
+  <si>
+    <t>BankAccountNumber</t>
+  </si>
+  <si>
+    <t>ReceiptPayer</t>
+  </si>
+  <si>
+    <t>monthYear</t>
+  </si>
+  <si>
+    <t>ChequeStatus</t>
+  </si>
+  <si>
+    <t>ChequeNumber</t>
+  </si>
+  <si>
+    <t>Gl Date</t>
+  </si>
+  <si>
+    <t>Gl Month</t>
+  </si>
+  <si>
+    <t>Gl Year</t>
+  </si>
+  <si>
+    <t>Gl FullMonth</t>
+  </si>
+  <si>
+    <t>Gl To Date</t>
+  </si>
+  <si>
+    <t>Gl To Month</t>
+  </si>
+  <si>
+    <t>Gl To Year</t>
+  </si>
+  <si>
+    <t>Gl To FullMonth</t>
+  </si>
+  <si>
+    <t>SlipNumber</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_01</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_01_D1</t>
+  </si>
+  <si>
+    <t>RRN07032022103</t>
+  </si>
+  <si>
+    <t>STATE BANK OF INDIA-State Bank of India Karnataka Bangalore-4983902943-INR</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_02</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_02_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_03</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_03_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_04</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_04_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_03_01</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_03_01_D1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Cleared</t>
+  </si>
+  <si>
+    <t>RRN_001_002</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_03_02</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_03_02_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_03_03</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_03_03_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_03_04</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_03_04_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_04</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_04_D1</t>
+  </si>
+  <si>
+    <t>RRN101015</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_05</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_05_D1</t>
+  </si>
+  <si>
+    <t>ReceiptType</t>
+  </si>
+  <si>
+    <t>ReceiptRefNo</t>
+  </si>
+  <si>
+    <t>BankAcc</t>
+  </si>
+  <si>
+    <t>Receiptpayer</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_001_TC_01</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_001_TC_01_D1</t>
+  </si>
+  <si>
+    <t>RRN2802202215</t>
+  </si>
+  <si>
+    <t>ICICIBANK-JAIPUR BRANCH-ICICI883298348348394-INR</t>
+  </si>
+  <si>
+    <t>SRK</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_001_TC_02</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_001_TC_02_D1</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_001_TC_03</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_001_TC_03_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_001_TC_04</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_001_TC_04_D1</t>
+  </si>
+  <si>
+    <t>ContractType</t>
+  </si>
+  <si>
+    <t>BusinessPartnerName</t>
+  </si>
+  <si>
+    <t>ContractName</t>
+  </si>
+  <si>
+    <t>CreditPeriod</t>
+  </si>
+  <si>
+    <t>PaymentAmmount</t>
+  </si>
+  <si>
+    <t>HSNCode</t>
+  </si>
+  <si>
+    <t>VendorContractQuantity</t>
+  </si>
+  <si>
+    <t>RatePerUnit</t>
+  </si>
+  <si>
+    <t>PaymentTerm</t>
+  </si>
+  <si>
+    <t>PaymentTermPercentage</t>
+  </si>
+  <si>
+    <t>PaymentMode</t>
+  </si>
+  <si>
+    <t>SuplierReferenceNumber</t>
+  </si>
+  <si>
+    <t>FlatDiscount</t>
+  </si>
+  <si>
+    <t>ApprovedPo</t>
+  </si>
+  <si>
+    <t>InvoiceNo</t>
+  </si>
+  <si>
+    <t>ItemQuantity</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_008_TC_01</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_008_TC_01_D1</t>
+  </si>
+  <si>
+    <t>Purchases Contract</t>
+  </si>
+  <si>
+    <t>Purchace Contract102</t>
+  </si>
+  <si>
+    <t>999459- Cleaning Ser</t>
+  </si>
+  <si>
+    <t>Pay Order</t>
+  </si>
+  <si>
+    <t>SUP-1005239</t>
+  </si>
+  <si>
+    <t>Dec 2023</t>
+  </si>
+  <si>
+    <t>INVC-10032022129</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_008_TC_02</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_008_TC_02_D1</t>
   </si>
   <si>
     <t>KUBS_AR_AP_UAT_003_009_TC_01</t>
@@ -337,7 +680,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +701,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -456,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -471,6 +824,22 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,7 +859,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -778,17 +1147,379 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53ECC717-64D4-4F2B-80B2-15FE2E75F1E2}">
+  <dimension ref="A1:AA7"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" ht="20.25" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:27" ht="20.25" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="1:27" ht="20.25" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+    </row>
+    <row r="5" spans="1:27" ht="20.25" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8">
+        <v>22</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="8">
+        <v>2023</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" ht="20.25" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8">
+        <v>22</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="8">
+        <v>2023</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+    </row>
+    <row r="7" spans="1:27" ht="20.25" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8">
+        <v>22</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="8">
+        <v>2023</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="8"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CF0092-05B3-41BD-8138-FDAA12000422}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -830,64 +1561,64 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="W1" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -895,42 +1626,42 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G2" s="8">
         <v>14</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I2" s="8">
         <v>2022</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K2" s="8">
         <v>15</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M2" s="8">
         <v>2022</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -948,10 +1679,10 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -966,16 +1697,16 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
@@ -989,15 +1720,15 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1013,22 +1744,22 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="10" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -1039,7 +1770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511CA6F8-E32A-4160-8BE1-E36227470717}">
   <dimension ref="A1:T6"/>
   <sheetViews>
@@ -1081,37 +1812,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -1121,43 +1852,43 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="8">
         <v>1</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J2" s="8">
         <v>2022</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L2" s="8">
         <v>14</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N2" s="8">
         <v>2022</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -1167,33 +1898,33 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="4" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J3" s="8">
         <v>2022</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -1207,15 +1938,15 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1223,13 +1954,13 @@
         <v>14</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J4" s="8">
         <v>2022</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -1243,15 +1974,15 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="4" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1271,10 +2002,10 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1300,7 +2031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
@@ -1342,113 +2073,113 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G2" s="8">
         <v>30</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="I2" s="8">
         <v>2023</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="K2" s="8">
         <v>1</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="M2" s="8">
         <v>2024</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -1466,18 +2197,18 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -1487,10 +2218,10 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -1507,15 +2238,15 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1531,13 +2262,13 @@
         <v>30</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="R4" s="8">
         <v>2023</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -1550,10 +2281,10 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="4" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1572,19 +2303,19 @@
         <v>30</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="R5" s="8">
         <v>2023</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
@@ -1595,15 +2326,15 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="4" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -1619,37 +2350,37 @@
         <v>30</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="R6" s="8">
         <v>2023</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="X6" s="7">
         <v>10</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +2388,1090 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D94D1DF-B067-40DB-996B-D729A2C2ABF9}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D147397-1478-4ACE-83EE-EAF6898905B3}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+    </row>
+    <row r="5" spans="1:27" ht="60.75">
+      <c r="A5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1411AE77-3502-4902-9B50-B2F905C7887E}">
+  <dimension ref="A1:AZ3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" style="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+    </row>
+    <row r="2" spans="1:52" ht="30.75">
+      <c r="A2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2</v>
+      </c>
+      <c r="I2" s="8">
+        <v>50000</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K2" s="8">
+        <v>10</v>
+      </c>
+      <c r="L2" s="8">
+        <v>10</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="8">
+        <v>3</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="8">
+        <v>27</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="15">
+        <v>2023</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+    </row>
+    <row r="3" spans="1:52">
+      <c r="A3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBF98A0-2B06-4A49-83D6-BD198AF90B9E}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
@@ -1707,10 +3521,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1736,18 +3550,18 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>

--- a/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_TESTDATA_V1.xlsx
+++ b/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_TESTDATA_V1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26105"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26207"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B8579E-9B2B-4A0B-B272-14D6F7B25EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24BED0EE-2517-4AC2-AB0F-2C7B83576010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ApprovingBillsByEmployeeData" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="240">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -220,6 +220,12 @@
     <t>ReceivableName</t>
   </si>
   <si>
+    <t>AdvNumber</t>
+  </si>
+  <si>
+    <t>BPName</t>
+  </si>
+  <si>
     <t>KUBS_AR_AP_UAT_003_008_TC_01</t>
   </si>
   <si>
@@ -250,252 +256,357 @@
     <t>KUBS_AR_AP_UAT_003_008_TC_03_D1</t>
   </si>
   <si>
+    <t>Dec 2022</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>ADV_30_24112022</t>
+  </si>
+  <si>
+    <t>Mehta</t>
+  </si>
+  <si>
+    <t>Contract Status</t>
+  </si>
+  <si>
+    <t>Branch Code</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>ToMonth</t>
+  </si>
+  <si>
+    <t>ToYear</t>
+  </si>
+  <si>
+    <t>FullToMonth</t>
+  </si>
+  <si>
+    <t>ContractType</t>
+  </si>
+  <si>
+    <t>BusinessPartnerName</t>
+  </si>
+  <si>
+    <t>ContractName</t>
+  </si>
+  <si>
+    <t>CreditPeriod</t>
+  </si>
+  <si>
+    <t>PaymentAmmount</t>
+  </si>
+  <si>
+    <t>HSNCode</t>
+  </si>
+  <si>
+    <t>VendorContractQuantity</t>
+  </si>
+  <si>
+    <t>RatePerUnit</t>
+  </si>
+  <si>
+    <t>PaymentTerm</t>
+  </si>
+  <si>
+    <t>PaymentTermPercentage</t>
+  </si>
+  <si>
+    <t>PaymentMode</t>
+  </si>
+  <si>
+    <t>SuplierReferenceNumber</t>
+  </si>
+  <si>
+    <t>FlatDiscount</t>
+  </si>
+  <si>
+    <t>ApprovedPo</t>
+  </si>
+  <si>
+    <t>InvoiceNo</t>
+  </si>
+  <si>
+    <t>DeliveryLocation</t>
+  </si>
+  <si>
+    <t>ItemQuantity</t>
+  </si>
+  <si>
+    <t>CreditAmmount</t>
+  </si>
+  <si>
+    <t>ApprovedInvoiceNumber</t>
+  </si>
+  <si>
+    <t>contractstatusactive</t>
+  </si>
+  <si>
+    <t>AdjustmentItemType</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_01</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_01_D1</t>
+  </si>
+  <si>
+    <t>CANCELLED</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_02</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_02_D1</t>
+  </si>
+  <si>
+    <t>Own Branch</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_03</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_03_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_04</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_04_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_05</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_007_TC_05_D1</t>
+  </si>
+  <si>
+    <t>Purchases Contract</t>
+  </si>
+  <si>
+    <t>Bonton Agency</t>
+  </si>
+  <si>
+    <t>Purchace Contract102</t>
+  </si>
+  <si>
+    <t>999459- Cleaning Ser</t>
+  </si>
+  <si>
+    <t>Pay Order</t>
+  </si>
+  <si>
+    <t>SUP-1005239</t>
+  </si>
+  <si>
+    <t>Dec 2023</t>
+  </si>
+  <si>
+    <t>inv_3236</t>
+  </si>
+  <si>
+    <t>INDIA - Maharastra - Azentio Main Branch</t>
+  </si>
+  <si>
+    <t>INV-99-22023</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>AR Credit Note</t>
+  </si>
+  <si>
+    <t>GRN Status</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>FromMonth</t>
+  </si>
+  <si>
+    <t>FromYear</t>
+  </si>
+  <si>
+    <t>FromFullMonth</t>
+  </si>
+  <si>
+    <t>ToFullMonth</t>
+  </si>
+  <si>
+    <t>BusinessPartner</t>
+  </si>
+  <si>
+    <t>ContracttypeAsInvoice</t>
+  </si>
+  <si>
+    <t>ContractStatus</t>
+  </si>
+  <si>
+    <t>DebitNoteAmount</t>
+  </si>
+  <si>
+    <t>DebitType</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_006_TC_01</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_006_TC_01_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_006_TC_02</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_006_TC_02_D1</t>
+  </si>
+  <si>
+    <t>Azentio Main Branch</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_006_TC_03</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_006_TC_03_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_006_TC_04</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_006_TC_04_D1</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_006_TC_05</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_003_006_TC_05_D1</t>
+  </si>
+  <si>
+    <t>Invoice Against PO</t>
+  </si>
+  <si>
+    <t>Acive</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>AR Debit Note</t>
+  </si>
+  <si>
+    <t>ReceiptReferenceNumber</t>
+  </si>
+  <si>
+    <t>ReceiptAmount</t>
+  </si>
+  <si>
+    <t>BankAccountNumber</t>
+  </si>
+  <si>
+    <t>ReceiptPayer</t>
+  </si>
+  <si>
+    <t>monthYear</t>
+  </si>
+  <si>
+    <t>ChequeStatus</t>
+  </si>
+  <si>
+    <t>ChequeNumber</t>
+  </si>
+  <si>
+    <t>Gl Date</t>
+  </si>
+  <si>
+    <t>Gl Month</t>
+  </si>
+  <si>
+    <t>Gl Year</t>
+  </si>
+  <si>
+    <t>Gl FullMonth</t>
+  </si>
+  <si>
+    <t>Gl To Date</t>
+  </si>
+  <si>
+    <t>Gl To Month</t>
+  </si>
+  <si>
+    <t>Gl To Year</t>
+  </si>
+  <si>
+    <t>Gl To FullMonth</t>
+  </si>
+  <si>
+    <t>SlipNumber</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_01</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_01_D1</t>
+  </si>
+  <si>
+    <t>RRN07032022103</t>
+  </si>
+  <si>
+    <t>STATE BANK OF INDIA-State Bank of India Karnataka Bangalore-4983902943-INR</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_02</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_02_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_03</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_03_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_04</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_02_04_D1</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_03_01</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_010_002_TC_03_01_D1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>Apr 2023</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Contract Status</t>
-  </si>
-  <si>
-    <t>Branch Code</t>
-  </si>
-  <si>
-    <t>ToDate</t>
-  </si>
-  <si>
-    <t>ToMonth</t>
-  </si>
-  <si>
-    <t>ToYear</t>
-  </si>
-  <si>
-    <t>FullToMonth</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_01</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_01_D1</t>
-  </si>
-  <si>
-    <t>CANCELLED</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_02</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_02_D1</t>
-  </si>
-  <si>
-    <t>Own Branch</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_03</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_03_D1</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_04</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_04_D1</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_05</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_007_TC_05_D1</t>
-  </si>
-  <si>
-    <t>GRN Status</t>
-  </si>
-  <si>
-    <t>FromDate</t>
-  </si>
-  <si>
-    <t>FromMonth</t>
-  </si>
-  <si>
-    <t>FromYear</t>
-  </si>
-  <si>
-    <t>FromFullMonth</t>
-  </si>
-  <si>
-    <t>ToFullMonth</t>
-  </si>
-  <si>
-    <t>BusinessPartner</t>
-  </si>
-  <si>
-    <t>ContracttypeAsInvoice</t>
-  </si>
-  <si>
-    <t>ContractStatus</t>
-  </si>
-  <si>
-    <t>DebitNoteAmount</t>
-  </si>
-  <si>
-    <t>DebitType</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_006_TC_01</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_006_TC_01_D1</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_006_TC_02</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_006_TC_02_D1</t>
-  </si>
-  <si>
-    <t>Azentio Main Branch</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_006_TC_03</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_006_TC_03_D1</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_006_TC_04</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_006_TC_04_D1</t>
-  </si>
-  <si>
-    <t>Bonton Agency</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_006_TC_05</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_003_006_TC_05_D1</t>
-  </si>
-  <si>
-    <t>Invoice Against PO</t>
-  </si>
-  <si>
-    <t>Acive</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>AR Debit Note</t>
-  </si>
-  <si>
-    <t>ReceiptReferenceNumber</t>
-  </si>
-  <si>
-    <t>ReceiptAmount</t>
-  </si>
-  <si>
-    <t>BankAccountNumber</t>
-  </si>
-  <si>
-    <t>ReceiptPayer</t>
-  </si>
-  <si>
-    <t>monthYear</t>
-  </si>
-  <si>
-    <t>ChequeStatus</t>
-  </si>
-  <si>
-    <t>ChequeNumber</t>
-  </si>
-  <si>
-    <t>Gl Date</t>
-  </si>
-  <si>
-    <t>Gl Month</t>
-  </si>
-  <si>
-    <t>Gl Year</t>
-  </si>
-  <si>
-    <t>Gl FullMonth</t>
-  </si>
-  <si>
-    <t>Gl To Date</t>
-  </si>
-  <si>
-    <t>Gl To Month</t>
-  </si>
-  <si>
-    <t>Gl To Year</t>
-  </si>
-  <si>
-    <t>Gl To FullMonth</t>
-  </si>
-  <si>
-    <t>SlipNumber</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_010_002_TC_02_01</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_010_002_TC_02_01_D1</t>
-  </si>
-  <si>
-    <t>RRN07032022103</t>
-  </si>
-  <si>
-    <t>STATE BANK OF INDIA-State Bank of India Karnataka Bangalore-4983902943-INR</t>
-  </si>
-  <si>
-    <t>Anand</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_010_002_TC_02_02</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_010_002_TC_02_02_D1</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_010_002_TC_02_03</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_010_002_TC_02_03_D1</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_010_002_TC_02_04</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_010_002_TC_02_04_D1</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_010_002_TC_03_01</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_010_002_TC_03_01_D1</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
     <t>Cleared</t>
   </si>
   <si>
@@ -526,7 +637,7 @@
     <t>KUBS_AR_AP_UAT_010_002_TC_04_D1</t>
   </si>
   <si>
-    <t>RRN101015</t>
+    <t>1</t>
   </si>
   <si>
     <t>KUBS_AR_AP_UAT_010_002_TC_05</t>
@@ -535,6 +646,9 @@
     <t>KUBS_AR_AP_UAT_010_002_TC_05_D1</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>ReceiptType</t>
   </si>
   <si>
@@ -547,7 +661,16 @@
     <t>Receiptpayer</t>
   </si>
   <si>
-    <t>Branch</t>
+    <t>To Date</t>
+  </si>
+  <si>
+    <t>To Month</t>
+  </si>
+  <si>
+    <t>To Year</t>
+  </si>
+  <si>
+    <t>To FullMonth</t>
   </si>
   <si>
     <t>KUBS_AR_AP_UAT_010_001_TC_01</t>
@@ -586,52 +709,10 @@
     <t>KUBS_AR_AP_UAT_010_001_TC_04_D1</t>
   </si>
   <si>
-    <t>ContractType</t>
-  </si>
-  <si>
-    <t>BusinessPartnerName</t>
-  </si>
-  <si>
-    <t>ContractName</t>
-  </si>
-  <si>
-    <t>CreditPeriod</t>
-  </si>
-  <si>
-    <t>PaymentAmmount</t>
-  </si>
-  <si>
-    <t>HSNCode</t>
-  </si>
-  <si>
-    <t>VendorContractQuantity</t>
-  </si>
-  <si>
-    <t>RatePerUnit</t>
-  </si>
-  <si>
-    <t>PaymentTerm</t>
-  </si>
-  <si>
-    <t>PaymentTermPercentage</t>
-  </si>
-  <si>
-    <t>PaymentMode</t>
-  </si>
-  <si>
-    <t>SuplierReferenceNumber</t>
-  </si>
-  <si>
-    <t>FlatDiscount</t>
-  </si>
-  <si>
-    <t>ApprovedPo</t>
-  </si>
-  <si>
-    <t>InvoiceNo</t>
-  </si>
-  <si>
-    <t>ItemQuantity</t>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>November</t>
   </si>
   <si>
     <t>KUBS_AR_AP_UAT_004_008_TC_01</t>
@@ -640,25 +721,10 @@
     <t>KUBS_AR_AP_UAT_004_008_TC_01_D1</t>
   </si>
   <si>
-    <t>Purchases Contract</t>
-  </si>
-  <si>
-    <t>Purchace Contract102</t>
-  </si>
-  <si>
-    <t>999459- Cleaning Ser</t>
-  </si>
-  <si>
-    <t>Pay Order</t>
-  </si>
-  <si>
-    <t>SUP-1005239</t>
-  </si>
-  <si>
-    <t>Dec 2023</t>
-  </si>
-  <si>
-    <t>INVC-10032022129</t>
+    <t>INV1214</t>
+  </si>
+  <si>
+    <t>Nov 2022</t>
   </si>
   <si>
     <t>KUBS_AR_AP_UAT_004_008_TC_02</t>
@@ -667,6 +733,18 @@
     <t>KUBS_AR_AP_UAT_004_008_TC_02_D1</t>
   </si>
   <si>
+    <t>Date1</t>
+  </si>
+  <si>
+    <t>Month1</t>
+  </si>
+  <si>
+    <t>Year1</t>
+  </si>
+  <si>
+    <t>FullMonth1</t>
+  </si>
+  <si>
     <t>KUBS_AR_AP_UAT_003_009_TC_01</t>
   </si>
   <si>
@@ -674,6 +752,9 @@
   </si>
   <si>
     <t>Advance Against PO</t>
+  </si>
+  <si>
+    <t>DEP-RRN_001_002-20230111</t>
   </si>
 </sst>
 </file>
@@ -683,7 +764,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,8 +791,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,8 +828,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -805,11 +897,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -841,6 +968,17 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,31 +1296,31 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.85546875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="7" max="9" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="17.28515625" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.28515625" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.85546875" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.42578125" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.28515625" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="20" max="22" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="34.42578125" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="18.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1398,13 +1536,13 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>36</v>
       </c>
       <c r="P5" s="8">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>37</v>
@@ -1520,31 +1658,31 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.85546875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="7" max="9" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.42578125" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.28515625" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.85546875" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.42578125" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.28515625" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="20" max="22" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="34.42578125" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="18.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1620,27 +1758,31 @@
       <c r="X1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="Y1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2" s="8">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>36</v>
@@ -1652,7 +1794,7 @@
         <v>37</v>
       </c>
       <c r="K2" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>36</v>
@@ -1679,10 +1821,10 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1703,16 +1845,18 @@
         <v>27</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
-      <c r="W3" s="7"/>
+      <c r="W3" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
@@ -1720,15 +1864,15 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1740,20 +1884,26 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="P4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="S4" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W4" s="7" t="s">
         <v>29</v>
@@ -1761,8 +1911,12 @@
       <c r="X4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="Y4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="AA4" s="7"/>
     </row>
   </sheetData>
@@ -1772,33 +1926,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511CA6F8-E32A-4160-8BE1-E36227470717}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:AX6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="7" width="30.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="false"/>
+    <col min="6" max="7" customWidth="true" width="30.140625" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.5703125" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.85546875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="9.7109375" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.5703125" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.42578125" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.7109375" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="18.140625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="20.7109375" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.7109375" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.85546875" collapsed="false"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.85546875" collapsed="false"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="23.140625" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.7109375" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.5703125" collapsed="false"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.7109375" collapsed="false"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.140625" collapsed="false"/>
+    <col min="27" max="28" customWidth="true" width="19.7109375" collapsed="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.5703125" collapsed="false"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" width="23.0" collapsed="false"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="7.85546875" collapsed="false"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="38.7109375" collapsed="false"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="38" max="38" customWidth="true" width="15.140625" collapsed="false"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="11.7109375" collapsed="false"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="7.7109375" collapsed="false"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.42578125" collapsed="false"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="48" max="48" customWidth="true" width="21.7109375" collapsed="false"/>
+    <col min="49" max="49" customWidth="true" width="18.42578125" collapsed="false"/>
+    <col min="50" max="50" customWidth="true" width="19.5703125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:50">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1812,10 +1998,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -1833,39 +2019,139 @@
         <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20">
+        <v>83</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="G2" s="9"/>
       <c r="H2" s="8">
         <v>1</v>
       </c>
@@ -1879,7 +2165,7 @@
         <v>37</v>
       </c>
       <c r="L2" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>36</v>
@@ -1895,24 +2181,54 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+    </row>
+    <row r="3" spans="1:50">
       <c r="A3" s="4" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
@@ -1935,23 +2251,53 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+    </row>
+    <row r="4" spans="1:50">
       <c r="A4" s="4" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>36</v>
@@ -1967,22 +2313,52 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+    </row>
+    <row r="5" spans="1:50">
       <c r="A5" s="4" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1999,32 +2375,152 @@
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="24"/>
+      <c r="AW5" s="24"/>
+      <c r="AX5" s="24"/>
+    </row>
+    <row r="6" spans="1:50" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="15">
+        <v>2022</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="P6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="S6" s="8">
+        <v>2</v>
+      </c>
+      <c r="T6" s="8">
+        <v>50000</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="V6" s="8">
+        <v>10</v>
+      </c>
+      <c r="W6" s="8">
+        <v>10</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF6" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>100</v>
+      </c>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW6" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX6" s="22" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2035,28 +2531,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="31.42578125" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.7109375" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.5703125" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.7109375" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="20.28515625" collapsed="false"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="15.28515625" collapsed="false"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -2073,34 +2569,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>18</v>
@@ -2121,16 +2617,16 @@
         <v>12</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>9</v>
@@ -2139,15 +2635,15 @@
         <v>10</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2158,28 +2654,28 @@
         <v>38</v>
       </c>
       <c r="G2" s="8">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="I2" s="8">
-        <v>2023</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>107</v>
+        <v>2022</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="K2" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="M2" s="8">
-        <v>2024</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>107</v>
+        <v>2022</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -2197,10 +2693,10 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2208,7 +2704,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -2218,7 +2714,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>39</v>
@@ -2238,10 +2734,10 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2259,16 +2755,16 @@
       <c r="N4" s="8"/>
       <c r="O4" s="7"/>
       <c r="P4" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="R4" s="8">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -2281,14 +2777,16 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -2303,19 +2801,19 @@
         <v>30</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="R5" s="8">
         <v>2023</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
@@ -2326,10 +2824,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="4" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2350,25 +2848,25 @@
         <v>30</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="R6" s="8">
         <v>2023</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="X6" s="7">
         <v>10</v>
@@ -2377,10 +2875,10 @@
         <v>27</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2392,37 +2890,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D94D1DF-B067-40DB-996B-D729A2C2ABF9}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="M6" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="41.5703125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.140625" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.85546875" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="19" width="12.85546875" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="19" width="12.42578125" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="19" width="10.42578125" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="13.28515625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="11.5703125" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.28515625" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.28515625" collapsed="false"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.28515625" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="11.56640625" collapsed="false" bestFit="true"/>
+    <col min="26" max="26" customWidth="true" width="12.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -2439,16 +2938,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -2463,67 +2962,69 @@
         <v>15</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z1" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="F2" s="7">
         <v>10000</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>27</v>
@@ -2549,10 +3050,10 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2582,10 +3083,10 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="4" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2615,10 +3116,10 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2648,10 +3149,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="4" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2661,22 +3162,22 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="20" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>154</v>
+        <v>190</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>191</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
@@ -2693,10 +3194,10 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="4" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2726,10 +3227,10 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="4" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2759,10 +3260,10 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="4" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2792,10 +3293,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2809,32 +3310,50 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>163</v>
+        <v>190</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>191</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="V10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="4" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2849,18 +3368,30 @@
       <c r="M11" s="20"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
+      <c r="P11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA11" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2872,35 +3403,35 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="M2" sqref="M2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.140625" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="50.7109375" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.5703125" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="11.42578125" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="5.28515625" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="7.140625" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="5.42578125" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.140625" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.7109375" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="5.0" collapsed="false"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="34.42578125" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -2917,25 +3448,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>18</v>
@@ -2952,10 +3483,18 @@
       <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -2966,10 +3505,10 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2977,16 +3516,16 @@
         <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="G2" s="7">
         <v>1000</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>27</v>
@@ -3011,27 +3550,27 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="8" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="G3" s="7">
         <v>1000</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>27</v>
@@ -3054,33 +3593,51 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="60.75">
       <c r="A4" s="4" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="8" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="M4" s="8">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="8">
+        <v>2022</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>13</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="8">
+        <v>2022</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="7"/>
@@ -3091,10 +3648,10 @@
     </row>
     <row r="5" spans="1:27" ht="60.75">
       <c r="A5" s="4" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3107,11 +3664,21 @@
       <c r="K5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="8">
+        <v>15</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="O5" s="8">
+        <v>2022</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -3131,52 +3698,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1411AE77-3502-4902-9B50-B2F905C7887E}">
-  <dimension ref="A1:AZ3"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" customWidth="1"/>
-    <col min="28" max="28" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="false"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="20.7109375" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.85546875" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.85546875" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.7109375" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.5703125" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.7109375" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.140625" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.5703125" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="5.28515625" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.140625" collapsed="false"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="16" width="5.42578125" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.85546875" collapsed="false"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="18.28515625" collapsed="false"/>
+    <col min="27" max="28" customWidth="true" width="18.28515625" collapsed="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="7.7109375" collapsed="false"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="10.42578125" collapsed="false"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="38" max="38" customWidth="true" width="11.7109375" collapsed="false"/>
+    <col min="39" max="39" customWidth="true" style="19" width="12.0" collapsed="false"/>
+    <col min="41" max="41" customWidth="true" width="10.7109375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3190,43 +3759,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>12</v>
@@ -3250,46 +3819,56 @@
         <v>10</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="AB1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
+      <c r="AL1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
@@ -3301,24 +3880,25 @@
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
       <c r="AZ1" s="2"/>
-    </row>
-    <row r="2" spans="1:52" ht="30.75">
+      <c r="BA1" s="2"/>
+    </row>
+    <row r="2" spans="1:53" ht="30.75">
       <c r="A2" s="4" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="H2" s="8">
         <v>2</v>
@@ -3327,7 +3907,7 @@
         <v>50000</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="K2" s="8">
         <v>10</v>
@@ -3342,10 +3922,10 @@
         <v>3</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="Q2" s="8">
         <v>0</v>
@@ -3366,7 +3946,7 @@
         <v>2023</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>27</v>
@@ -3374,13 +3954,15 @@
       <c r="Y2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA2" s="7">
+      <c r="Z2" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB2" s="7">
         <v>1</v>
       </c>
-      <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
@@ -3390,10 +3972,18 @@
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
+      <c r="AL2" s="7">
+        <v>11</v>
+      </c>
+      <c r="AM2" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>2022</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
@@ -3405,13 +3995,14 @@
       <c r="AX2" s="7"/>
       <c r="AY2" s="7"/>
       <c r="AZ2" s="7"/>
-    </row>
-    <row r="3" spans="1:52">
+      <c r="BA2" s="7"/>
+    </row>
+    <row r="3" spans="1:53">
       <c r="A3" s="4" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3438,20 +4029,36 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>2022</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>13</v>
+      </c>
+      <c r="AI3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>2022</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
+      <c r="AM3" s="18"/>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
@@ -3465,6 +4072,7 @@
       <c r="AX3" s="7"/>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3475,36 +4083,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBF98A0-2B06-4A49-83D6-BD198AF90B9E}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.85546875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="20.42578125" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.7109375" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.42578125" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.28515625" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.85546875" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.28515625" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="5.28515625" collapsed="false"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="5.0" collapsed="false"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="34.42578125" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -3524,17 +4132,35 @@
         <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -3548,30 +4174,48 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="30.75">
       <c r="A2" s="4" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="8">
+        <v>13</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>

--- a/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_TESTDATA_V1.xlsx
+++ b/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_TESTDATA_V1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26207"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24BED0EE-2517-4AC2-AB0F-2C7B83576010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94CD9BED-27F1-4A4B-9445-300A34029B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ApprovingBillsByEmployeeData" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="250">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -49,10 +49,10 @@
     <t>ReviewerID</t>
   </si>
   <si>
-    <t>RecivableName</t>
-  </si>
-  <si>
-    <t>Partner</t>
+    <t>ReceivableName</t>
+  </si>
+  <si>
+    <t>BusinessPartner</t>
   </si>
   <si>
     <t>ModeofPayment</t>
@@ -106,7 +106,7 @@
     <t>Advance To Employee</t>
   </si>
   <si>
-    <t>TRM agency</t>
+    <t>Pankaj Kumar</t>
   </si>
   <si>
     <t>Cheque</t>
@@ -124,15 +124,24 @@
     <t>Active</t>
   </si>
   <si>
+    <t>Employee wise</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_007_TC_02</t>
+  </si>
+  <si>
+    <t>KUBS_AR_AP_UAT_004_007_TC_02_D1</t>
+  </si>
+  <si>
     <t>Business Partner wise</t>
   </si>
   <si>
-    <t>KUBS_AR_AP_UAT_004_007_TC_02</t>
-  </si>
-  <si>
-    <t>KUBS_AR_AP_UAT_004_007_TC_02_D1</t>
-  </si>
-  <si>
     <t>KUBS_AR_AP_UAT_004_007_TC_03</t>
   </si>
   <si>
@@ -145,12 +154,6 @@
     <t>KUBS_AR_AP_UAT_004_007_TC_05_D1</t>
   </si>
   <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
     <t>AZENTMAIN-Azentio Main Branch</t>
   </si>
   <si>
@@ -163,7 +166,13 @@
     <t>KUBS_AR_AP_UAT_004_007_TC_06_D1</t>
   </si>
   <si>
-    <t>PAN-254-2022-04-22</t>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>PAN-86-2023-02-09</t>
   </si>
   <si>
     <t>KUBS_AR_AP_UAT_004_007_TC_07</t>
@@ -217,9 +226,6 @@
     <t>PaymentOptionForCancelledAdvance</t>
   </si>
   <si>
-    <t>ReceivableName</t>
-  </si>
-  <si>
     <t>AdvNumber</t>
   </si>
   <si>
@@ -442,9 +448,6 @@
     <t>ToFullMonth</t>
   </si>
   <si>
-    <t>BusinessPartner</t>
-  </si>
-  <si>
     <t>ContracttypeAsInvoice</t>
   </si>
   <si>
@@ -752,6 +755,33 @@
   </si>
   <si>
     <t>Advance Against PO</t>
+  </si>
+  <si>
+    <t>1529</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>1002436</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>85</t>
   </si>
   <si>
     <t>DEP-RRN_001_002-20230111</t>
@@ -1295,32 +1325,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53ECC717-64D4-4F2B-80B2-15FE2E75F1E2}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.85546875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="7" max="9" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="17.28515625" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.28515625" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="7.85546875" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.42578125" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="22.28515625" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="20" max="22" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="34.42578125" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="18.42578125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="22" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1428,10 +1459,18 @@
       <c r="M2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="N2" s="8">
+        <v>15</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
@@ -1445,10 +1484,10 @@
     </row>
     <row r="3" spans="1:27" ht="20.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1463,7 +1502,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -1482,10 +1521,10 @@
     </row>
     <row r="4" spans="1:27" ht="20.25" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1500,7 +1539,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -1519,10 +1558,10 @@
     </row>
     <row r="5" spans="1:27" ht="20.25" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1539,19 +1578,19 @@
         <v>11</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P5" s="8">
         <v>2022</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
@@ -1564,10 +1603,10 @@
     </row>
     <row r="6" spans="1:27" ht="20.25" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1584,18 +1623,18 @@
         <v>22</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="P6" s="8">
         <v>2023</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="R6" s="8"/>
       <c r="S6" s="10"/>
       <c r="T6" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
@@ -1607,10 +1646,10 @@
     </row>
     <row r="7" spans="1:27" ht="20.25" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1627,18 +1666,18 @@
         <v>22</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P7" s="8">
         <v>2023</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="10"/>
       <c r="T7" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
@@ -1663,26 +1702,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.85546875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="7" max="9" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.42578125" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.28515625" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="7.85546875" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.42578125" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="22.28515625" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="20" max="22" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="34.42578125" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="18.42578125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="22" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1699,49 +1738,49 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>13</v>
@@ -1753,57 +1792,57 @@
         <v>16</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="8">
         <v>1</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I2" s="8">
         <v>2022</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K2" s="8">
         <v>13</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M2" s="8">
         <v>2022</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -1821,10 +1860,10 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1845,17 +1884,17 @@
         <v>27</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
@@ -1864,15 +1903,15 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1888,34 +1927,34 @@
         <v>27</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA4" s="7"/>
     </row>
@@ -1934,54 +1973,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="false"/>
-    <col min="6" max="7" customWidth="true" width="30.140625" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.5703125" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.85546875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="9.7109375" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.5703125" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.42578125" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.7109375" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="18.140625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="20.7109375" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="20.7109375" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.140625" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="17.85546875" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="19.85546875" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="23.140625" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.7109375" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.5703125" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.7109375" collapsed="false"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.140625" collapsed="false"/>
-    <col min="27" max="28" customWidth="true" width="19.7109375" collapsed="false"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="23.5703125" collapsed="false"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="31" max="31" customWidth="true" width="23.0" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="7.85546875" collapsed="false"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="38.7109375" collapsed="false"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="38" max="38" customWidth="true" width="15.140625" collapsed="false"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="11.7109375" collapsed="false"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="7.7109375" collapsed="false"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.42578125" collapsed="false"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="48" max="48" customWidth="true" width="21.7109375" collapsed="false"/>
-    <col min="49" max="49" customWidth="true" width="18.42578125" collapsed="false"/>
-    <col min="50" max="50" customWidth="true" width="19.5703125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="27" max="28" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
@@ -1998,10 +2037,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -2019,162 +2058,162 @@
         <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="AF1" s="17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="8">
         <v>1</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J2" s="8">
         <v>2022</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L2" s="8">
         <v>13</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N2" s="8">
         <v>2022</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -2214,33 +2253,33 @@
     </row>
     <row r="3" spans="1:50">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J3" s="8">
         <v>2022</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -2284,15 +2323,15 @@
     </row>
     <row r="4" spans="1:50">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -2300,13 +2339,13 @@
         <v>12</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J4" s="8">
         <v>2022</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -2350,15 +2389,15 @@
     </row>
     <row r="5" spans="1:50">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -2408,10 +2447,10 @@
     </row>
     <row r="6" spans="1:50" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2422,10 +2461,10 @@
         <v>2</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K6" s="15">
         <v>2022</v>
@@ -2435,13 +2474,13 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="S6" s="8">
         <v>2</v>
@@ -2450,7 +2489,7 @@
         <v>50000</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V6" s="8">
         <v>10</v>
@@ -2465,7 +2504,7 @@
         <v>3</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>27</v>
@@ -2474,16 +2513,16 @@
         <v>27</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AD6" s="8">
         <v>0</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF6" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AG6" s="7" t="s">
         <v>27</v>
@@ -2492,10 +2531,10 @@
         <v>28</v>
       </c>
       <c r="AI6" s="27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AJ6" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK6" s="7">
         <v>1</v>
@@ -2513,13 +2552,13 @@
       <c r="AT6" s="7"/>
       <c r="AU6" s="7"/>
       <c r="AV6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AW6" s="22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AX6" s="22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2537,22 +2576,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="31.42578125" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.7109375" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.5703125" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.7109375" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="20.28515625" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="15.28515625" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="21.140625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -2569,34 +2608,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>18</v>
@@ -2617,16 +2656,16 @@
         <v>12</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>9</v>
@@ -2635,15 +2674,15 @@
         <v>10</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2651,31 +2690,31 @@
         <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="8">
         <v>1</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I2" s="8">
         <v>2022</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K2" s="8">
         <v>12</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M2" s="8">
         <v>2022</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -2693,10 +2732,10 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2704,7 +2743,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -2714,10 +2753,10 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -2734,10 +2773,10 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2758,13 +2797,13 @@
         <v>12</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R4" s="8">
         <v>2022</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -2777,15 +2816,15 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -2801,19 +2840,19 @@
         <v>30</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R5" s="8">
         <v>2023</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
@@ -2824,10 +2863,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2848,25 +2887,25 @@
         <v>30</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R6" s="8">
         <v>2023</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X6" s="7">
         <v>10</v>
@@ -2875,10 +2914,10 @@
         <v>27</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2890,38 +2929,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D94D1DF-B067-40DB-996B-D729A2C2ABF9}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="41.5703125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.140625" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="7.85546875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="19" width="12.85546875" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="19" width="12.42578125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="19" width="10.42578125" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="13.28515625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="11.5703125" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="19.28515625" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.28515625" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.28515625" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="11.56640625" collapsed="false" bestFit="true"/>
-    <col min="26" max="26" customWidth="true" width="12.28515625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.04296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="72.8515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="19" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="19" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="19" width="10.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="11.56640625" collapsed="true" bestFit="true"/>
+    <col min="26" max="26" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -2938,16 +2977,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -2962,43 +3001,43 @@
         <v>15</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>18</v>
@@ -3007,24 +3046,28 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="E2" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F2" s="7">
         <v>10000</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>27</v>
@@ -3050,10 +3093,10 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3083,10 +3126,10 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3116,10 +3159,10 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3149,35 +3192,39 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
@@ -3194,10 +3241,10 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3227,10 +3274,10 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3260,10 +3307,10 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3293,10 +3340,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3310,50 +3357,50 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="S10" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T10" s="20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V10" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W10" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X10" s="20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="Z10" s="24"/>
       <c r="AA10" s="24"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3369,19 +3416,19 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
@@ -3389,7 +3436,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA11" s="22"/>
     </row>
@@ -3408,30 +3455,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.140625" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="50.7109375" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.5703125" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="11.42578125" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="5.28515625" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="7.140625" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="5.42578125" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="10.140625" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="9.7109375" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="5.0" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="34.42578125" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.04296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="50.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -3448,19 +3495,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>10</v>
@@ -3484,16 +3531,16 @@
         <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -3505,27 +3552,31 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G2" s="7">
         <v>1000</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>27</v>
@@ -3550,27 +3601,31 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="E3" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G3" s="7">
         <v>1000</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>27</v>
@@ -3595,15 +3650,15 @@
     </row>
     <row r="4" spans="1:27" ht="60.75">
       <c r="A4" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
@@ -3611,32 +3666,32 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8">
         <v>1</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O4" s="8">
         <v>2022</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="8">
         <v>13</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="S4" s="8">
         <v>2022</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
@@ -3648,10 +3703,10 @@
     </row>
     <row r="5" spans="1:27" ht="60.75">
       <c r="A5" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3662,22 +3717,22 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M5" s="8">
         <v>15</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O5" s="8">
         <v>2022</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
@@ -3706,43 +3761,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="false"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="20.7109375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.140625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.85546875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.85546875" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.7109375" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.5703125" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.7109375" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.140625" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="23.5703125" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="5.28515625" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="7.140625" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="16" width="5.42578125" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.85546875" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="18.28515625" collapsed="false"/>
-    <col min="27" max="28" customWidth="true" width="18.28515625" collapsed="false"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="7.7109375" collapsed="false"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.42578125" collapsed="false"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="38" max="38" customWidth="true" width="11.7109375" collapsed="false"/>
-    <col min="39" max="39" customWidth="true" style="19" width="12.0" collapsed="false"/>
-    <col min="41" max="41" customWidth="true" width="10.7109375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.04296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="16" width="5.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="27" max="28" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="19" width="12.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
@@ -3759,43 +3814,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>12</v>
@@ -3813,55 +3868,55 @@
         <v>15</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AL1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AM1" s="17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AN1" s="2" t="s">
         <v>15</v>
@@ -3884,21 +3939,25 @@
     </row>
     <row r="2" spans="1:53" ht="30.75">
       <c r="A2" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+        <v>228</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="E2" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H2" s="8">
         <v>2</v>
@@ -3907,7 +3966,7 @@
         <v>50000</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K2" s="8">
         <v>10</v>
@@ -3922,31 +3981,31 @@
         <v>3</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q2" s="8">
         <v>0</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="S2" s="8">
         <v>27</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="V2" s="15">
         <v>2023</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>27</v>
@@ -3955,10 +4014,10 @@
         <v>28</v>
       </c>
       <c r="Z2" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AB2" s="7">
         <v>1</v>
@@ -3976,13 +4035,13 @@
         <v>11</v>
       </c>
       <c r="AM2" s="26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN2" s="7">
         <v>2022</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
@@ -3999,10 +4058,10 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -4031,31 +4090,31 @@
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AD3" s="7">
         <v>1</v>
       </c>
       <c r="AE3" s="26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AF3" s="7">
         <v>2022</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AH3" s="7">
         <v>13</v>
       </c>
       <c r="AI3" s="26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AJ3" s="7">
         <v>2022</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AL3" s="7"/>
       <c r="AM3" s="18"/>
@@ -4089,30 +4148,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.85546875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="20.42578125" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="7.7109375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.42578125" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.28515625" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="7.85546875" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="19.28515625" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="5.28515625" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="5.0" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="34.42578125" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -4129,10 +4188,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -4150,16 +4209,16 @@
         <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -4176,45 +4235,45 @@
     </row>
     <row r="2" spans="1:27" ht="30.75">
       <c r="A2" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J2" s="8">
         <v>2022</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L2" s="8">
         <v>13</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N2" s="8">
         <v>2022</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>

--- a/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_TESTDATA_V1.xlsx
+++ b/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_TESTDATA_V1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94CD9BED-27F1-4A4B-9445-300A34029B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33AB124D-0A09-4340-8A7F-E87639FDB5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ApprovingBillsByEmployeeData" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="290">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -457,6 +457,9 @@
     <t>DebitNoteAmount</t>
   </si>
   <si>
+    <t>DebitNumber</t>
+  </si>
+  <si>
     <t>DebitType</t>
   </si>
   <si>
@@ -466,6 +469,12 @@
     <t>KUBS_AR_AP_UAT_003_006_TC_01_D1</t>
   </si>
   <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
     <t>KUBS_AR_AP_UAT_003_006_TC_02</t>
   </si>
   <si>
@@ -475,9 +484,6 @@
     <t>Azentio Main Branch</t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
     <t>KUBS_AR_AP_UAT_003_006_TC_03</t>
   </si>
   <si>
@@ -490,9 +496,6 @@
     <t>KUBS_AR_AP_UAT_003_006_TC_04_D1</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
     <t>KUBS_AR_AP_UAT_003_006_TC_05</t>
   </si>
   <si>
@@ -502,12 +505,12 @@
     <t>Invoice Against PO</t>
   </si>
   <si>
-    <t>Acive</t>
-  </si>
-  <si>
     <t>Approved</t>
   </si>
   <si>
+    <t>DN-15-2232023</t>
+  </si>
+  <si>
     <t>AR Debit Note</t>
   </si>
   <si>
@@ -574,6 +577,9 @@
     <t>Anand</t>
   </si>
   <si>
+    <t>Feb 2023</t>
+  </si>
+  <si>
     <t>KUBS_AR_AP_UAT_010_002_TC_02_02</t>
   </si>
   <si>
@@ -757,34 +763,148 @@
     <t>Advance Against PO</t>
   </si>
   <si>
-    <t>1529</t>
-  </si>
-  <si>
-    <t>1530</t>
+    <t>1892</t>
   </si>
   <si>
     <t>1002436</t>
   </si>
   <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>746</t>
-  </si>
-  <si>
-    <t>747</t>
-  </si>
-  <si>
-    <t>748</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>DEP-RRN_001_002-20230111</t>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>1718</t>
+  </si>
+  <si>
+    <t>1740</t>
+  </si>
+  <si>
+    <t>1723</t>
+  </si>
+  <si>
+    <t>2087</t>
+  </si>
+  <si>
+    <t>INV-130-32023</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1760</t>
+  </si>
+  <si>
+    <t>1738</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1761</t>
+  </si>
+  <si>
+    <t>1762</t>
+  </si>
+  <si>
+    <t>1739</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1763</t>
+  </si>
+  <si>
+    <t>1743</t>
+  </si>
+  <si>
+    <t>1758</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>1764</t>
+  </si>
+  <si>
+    <t>1759</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>1781</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>1782</t>
+  </si>
+  <si>
+    <t>1765</t>
+  </si>
+  <si>
+    <t>1933</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>1783</t>
+  </si>
+  <si>
+    <t>1767</t>
+  </si>
+  <si>
+    <t>1770</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>1784</t>
+  </si>
+  <si>
+    <t>1772</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>INV-131-32023</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>ADV_42_1332023</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1325,7 +1445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53ECC717-64D4-4F2B-80B2-15FE2E75F1E2}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -1722,6 +1842,8 @@
     <col min="20" max="22" customWidth="true" width="11.0" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
     <col min="24" max="24" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.25390625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.6953125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1897,8 +2019,12 @@
         <v>34</v>
       </c>
       <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="Y3" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="1:27">
@@ -1967,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511CA6F8-E32A-4160-8BE1-E36227470717}">
   <dimension ref="A1:AX6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1975,14 +2101,14 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.04296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="true"/>
     <col min="6" max="7" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.27734375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.12890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.3046875" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="9.7109375" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
@@ -2018,7 +2144,7 @@
     <col min="45" max="45" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
     <col min="47" max="47" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
     <col min="49" max="49" customWidth="true" width="18.42578125" collapsed="true"/>
     <col min="50" max="50" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
@@ -2452,22 +2578,26 @@
       <c r="B6" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>243</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8">
-        <v>2</v>
+      <c r="H6" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="15">
-        <v>2022</v>
+        <v>191</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -2552,7 +2682,7 @@
       <c r="AT6" s="7"/>
       <c r="AU6" s="7"/>
       <c r="AV6" s="22" t="s">
-        <v>128</v>
+        <v>284</v>
       </c>
       <c r="AW6" s="22" t="s">
         <v>129</v>
@@ -2568,10 +2698,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:N2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2594,7 +2724,7 @@
     <col min="22" max="22" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2668,21 +2798,27 @@
         <v>139</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="AC1" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:29">
       <c r="A2" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2696,25 +2832,25 @@
         <v>1</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="I2" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="K2" s="8">
         <v>12</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="M2" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -2729,13 +2865,15 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:29">
       <c r="A3" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2743,7 +2881,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -2753,7 +2891,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>40</v>
@@ -2770,13 +2908,15 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:29">
       <c r="A4" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2813,13 +2953,15 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:29">
       <c r="A5" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2840,13 +2982,13 @@
         <v>30</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R5" s="8">
         <v>2023</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>34</v>
@@ -2860,13 +3002,15 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:29">
       <c r="A6" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2887,13 +3031,13 @@
         <v>30</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R6" s="8">
         <v>2023</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>34</v>
@@ -2902,22 +3046,28 @@
         <v>120</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="X6" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Y6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="AA6" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AA6" s="7" t="s">
+      <c r="AB6" s="7" t="s">
         <v>157</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2929,19 +3079,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D94D1DF-B067-40DB-996B-D729A2C2ABF9}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="41.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.04296875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="17.0" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="72.8515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="19" width="12.85546875" collapsed="true"/>
@@ -2959,7 +3109,7 @@
     <col min="22" max="22" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="11.56640625" collapsed="true" bestFit="true"/>
+    <col min="25" max="25" customWidth="true" width="11.7109375" collapsed="true"/>
     <col min="26" max="26" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2977,16 +3127,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -3001,43 +3151,43 @@
         <v>15</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>18</v>
@@ -3046,28 +3196,24 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>242</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F2" s="7">
         <v>10000</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>27</v>
@@ -3075,7 +3221,9 @@
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="M2" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -3093,10 +3241,10 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3126,10 +3274,10 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3159,10 +3307,10 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3192,39 +3340,35 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>242</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="8"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
@@ -3241,10 +3385,10 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3274,10 +3418,10 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3307,10 +3451,10 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3340,10 +3484,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3357,16 +3501,16 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>68</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="R10" s="20" t="s">
         <v>30</v>
@@ -3389,18 +3533,16 @@
       <c r="X10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Y10" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="Y10" s="7"/>
       <c r="Z10" s="24"/>
       <c r="AA10" s="24"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3419,7 +3561,7 @@
         <v>68</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="R11" s="20" t="s">
         <v>30</v>
@@ -3450,15 +3592,15 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:T2"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.04296875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
@@ -3495,19 +3637,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>10</v>
@@ -3531,16 +3673,16 @@
         <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -3552,31 +3694,27 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>242</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G2" s="7">
         <v>1000</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>27</v>
@@ -3601,31 +3739,27 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>242</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G3" s="7">
         <v>1000</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>27</v>
@@ -3650,15 +3784,15 @@
     </row>
     <row r="4" spans="1:27" ht="60.75">
       <c r="A4" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
@@ -3673,25 +3807,25 @@
         <v>1</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="O4" s="8">
-        <v>2022</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>31</v>
+        <v>2023</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="Q4" s="8">
         <v>13</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="S4" s="8">
-        <v>2022</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>31</v>
+        <v>2023</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
@@ -3703,10 +3837,10 @@
     </row>
     <row r="5" spans="1:27" ht="60.75">
       <c r="A5" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3726,13 +3860,13 @@
         <v>15</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O5" s="8">
         <v>2022</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
@@ -3756,15 +3890,15 @@
   <dimension ref="A1:BA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+      <selection activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.04296875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
     <col min="6" max="7" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
@@ -3939,17 +4073,13 @@
     </row>
     <row r="2" spans="1:53" ht="30.75">
       <c r="A2" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
         <v>119</v>
       </c>
@@ -4014,7 +4144,7 @@
         <v>28</v>
       </c>
       <c r="Z2" s="27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>127</v>
@@ -4035,13 +4165,13 @@
         <v>11</v>
       </c>
       <c r="AM2" s="26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN2" s="7">
         <v>2022</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
@@ -4058,10 +4188,10 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -4096,25 +4226,25 @@
         <v>1</v>
       </c>
       <c r="AE3" s="26" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="AF3" s="7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="AH3" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI3" s="26" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="AJ3" s="7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="AL3" s="7"/>
       <c r="AM3" s="18"/>
@@ -4142,7 +4272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBF98A0-2B06-4A49-83D6-BD198AF90B9E}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -4209,16 +4339,16 @@
         <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -4235,15 +4365,15 @@
     </row>
     <row r="2" spans="1:27" ht="30.75">
       <c r="A2" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>109</v>
